--- a/biology/Histoire de la zoologie et de la botanique/Karl_Hoffmann_(scientifique)/Karl_Hoffmann_(scientifique).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Hoffmann_(scientifique)/Karl_Hoffmann_(scientifique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Hoffmann est un médecin et un ornithologue allemand, né à Stettin, le 7 décembre 1823 et mort à Puntarenas, le 11 mai 1859.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de Médecine à l'Université de Berlin, il participe à partir de 1853 à une récolte  de spécimens d'histoire naturelle au Costa Rica, avec Alexander von Frantzius. Il sert dans l'armée costaricienne en tant que médecin lors de l'invasion de William Walker en 1856.
 Il meurt de la typhoïde, en 1859.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 31/08/08).</t>
         </is>
